--- a/python/ilin/SD t1=6 t2=5.xlsx
+++ b/python/ilin/SD t1=6 t2=5.xlsx
@@ -483,32 +483,32 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>6.03e+00</t>
+          <t>6.00e+00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.0918</t>
+          <t>0.0182</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
+          <t>5.99e+00</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0.0173</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
           <t>6.07e+00</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>0.0886</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>6.05e+00</t>
-        </is>
-      </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>0.11</t>
+          <t>0.0174</t>
         </is>
       </c>
     </row>
@@ -525,32 +525,32 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>4.79e+00</t>
+          <t>4.96e+00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.232</t>
+          <t>0.0481</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>4.81e+00</t>
+          <t>4.99e+00</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.223</t>
+          <t>0.0462</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>4.59e+00</t>
+          <t>4.83e+00</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>0.263</t>
+          <t>0.044</t>
         </is>
       </c>
     </row>
@@ -567,32 +567,32 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>4.83e+00</t>
+          <t>4.95e+00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.227</t>
+          <t>0.0468</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>4.87e+00</t>
+          <t>4.99e+00</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.22</t>
+          <t>0.045</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>4.62e+00</t>
+          <t>4.84e+00</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>0.258</t>
+          <t>0.0429</t>
         </is>
       </c>
     </row>
@@ -614,7 +614,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>4.02e-06</t>
+          <t>8.17e-07</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -624,7 +624,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.93e-06</t>
+          <t>7.72e-07</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -634,7 +634,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>4.86e-06</t>
+          <t>7.7e-07</t>
         </is>
       </c>
     </row>
